--- a/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
+++ b/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lianhang\program\SneakerPro\Sneaker\0_UseCase_UML_ER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50D244-AC8C-4BC1-B90D-19F4DB0519BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C42792-DC46-4485-9958-619B9BA4D9B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2712" yWindow="1068" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库表" sheetId="1" r:id="rId1"/>
@@ -2417,7 +2417,7 @@
   <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2748,6 +2748,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
+++ b/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lianhang\program\SneakerPro\Sneaker\0_UseCase_UML_ER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C42792-DC46-4485-9958-619B9BA4D9B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180ECDB1-3CCE-468C-9F8B-C1CD509F8B9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库表" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="223">
   <si>
     <t>用户信息表：UserInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -560,14 +560,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获取可选课程信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天禁用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>'\'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -604,82 +596,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TeacherSchedule_T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{T#teaid}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{T#!|teaid|安排1|安排2|...}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{T#?|teaid|error_msg}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrantCourse_G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{G#teaid}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获取可授课程信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{G#!|teaid|可授1|可授2|...}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{G#?|teaid|error_msg}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExistClass_E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{E#teaid}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获取现有班级信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{E#!|teaid|班级1|班级2|...}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{E#?|teaid|error_msg}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建班级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewClass_N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{N#teaid|classID|name|room|count}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增班级信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{N#?|teaid|error_msg}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>添加授课</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -700,10 +624,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>学生选课结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PickResult_R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -724,10 +644,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>录入学生成绩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EntryGrade_Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -752,18 +668,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GetHomePage_M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{M#id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>命令汇总：LIHXM|UOSPQ|TGENARY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>申请主页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -836,10 +744,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>命令汇总：LIHXM|FO(AF)(DF)(UF)(CF)SPQ|TGENARY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{O#!|fansid|订单1|订单2|...}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -905,6 +809,102 @@
   </si>
   <si>
     <t>获取交易订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraderStore_S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取商家商铺信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{S#traid}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{S#?|traid|error_msg}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{S#!|traid/id|type../id|type../}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraderMerch_M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHomePage_Z</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令汇总：LIHXZ|FO(AF)(DF)(UF)(CF)|S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令汇总：LIHXZ|UOSPQ|TGENARY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{M#storeid}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{M#?|storeid|error_msg}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{M#!|storeid|1|2|...}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraderMerch_J</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{J#teaid}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{J#!|teaid|班级1|班级2|...}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{J#?|teaid|error_msg}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令汇总：LIHXZ||SMJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyStoreImage_PS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PS#?|traid|error_msg}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PS#!|traid||||}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PS#traid|storeid1|storeid2|}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求图片信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1356,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1406,9 +1406,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1425,9 +1422,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1701,13 +1710,13 @@
   <sheetData>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1784,13 +1793,13 @@
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1854,13 +1863,13 @@
     </row>
     <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -1937,13 +1946,13 @@
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -2061,13 +2070,13 @@
     </row>
     <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
@@ -2198,13 +2207,13 @@
     </row>
     <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
@@ -2313,13 +2322,13 @@
     </row>
     <row r="53" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="38"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -2416,14 +2425,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B341545-7381-4158-B5FB-6298F9BF0289}">
   <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
@@ -2444,8 +2453,8 @@
       <c r="E2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
@@ -2481,7 +2490,7 @@
       <c r="F4" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2501,7 +2510,7 @@
       <c r="F5" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2521,7 +2530,7 @@
       <c r="F6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2533,13 +2542,13 @@
         <v>110</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2694,10 +2703,10 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -2706,10 +2715,10 @@
         <v>94</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2734,17 +2743,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="31"/>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2756,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27A60-6044-4F40-8A0D-7F33DB5BF3E4}">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2773,7 +2782,7 @@
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>89</v>
@@ -2784,15 +2793,15 @@
       <c r="E2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -2810,10 +2819,10 @@
         <v>94</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>97</v>
@@ -2821,8 +2830,8 @@
       <c r="F4" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>137</v>
+      <c r="G4" s="31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2830,7 +2839,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>102</v>
@@ -2841,8 +2850,8 @@
       <c r="F5" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>137</v>
+      <c r="G5" s="31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2850,7 +2859,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>106</v>
@@ -2861,25 +2870,25 @@
       <c r="F6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>137</v>
+      <c r="G6" s="31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="E7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2888,18 +2897,18 @@
         <v>94</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2908,7 +2917,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>102</v>
@@ -2928,7 +2937,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>106</v>
@@ -2945,10 +2954,10 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="27" t="s">
@@ -2964,16 +2973,16 @@
         <v>94</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>122</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G12" s="30"/>
     </row>
@@ -2982,7 +2991,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>102</v>
@@ -2993,7 +3002,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>106</v>
@@ -3001,10 +3010,10 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="D15" s="14"/>
     </row>
@@ -3013,10 +3022,10 @@
         <v>94</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3024,7 +3033,7 @@
         <v>100</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>102</v>
@@ -3035,7 +3044,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>106</v>
@@ -3043,10 +3052,10 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -3055,10 +3064,10 @@
         <v>94</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3066,7 +3075,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>102</v>
@@ -3077,7 +3086,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>106</v>
@@ -3085,10 +3094,10 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="D23" s="14"/>
     </row>
@@ -3097,10 +3106,10 @@
         <v>94</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3108,7 +3117,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>102</v>
@@ -3119,18 +3128,18 @@
         <v>100</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
+      <c r="B27" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3144,10 +3153,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE1C4F-B03B-42BB-804A-CE1BF2D44FE1}">
-  <dimension ref="B1:G31"/>
+  <dimension ref="B1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3162,7 +3171,7 @@
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>89</v>
@@ -3173,15 +3182,15 @@
       <c r="E2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -3199,10 +3208,10 @@
         <v>94</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>97</v>
@@ -3210,8 +3219,8 @@
       <c r="F4" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>137</v>
+      <c r="G4" s="31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3219,7 +3228,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>102</v>
@@ -3230,8 +3239,8 @@
       <c r="F5" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>137</v>
+      <c r="G5" s="31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3239,7 +3248,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>106</v>
@@ -3250,25 +3259,25 @@
       <c r="F6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>137</v>
+      <c r="G6" s="31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="E7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3277,18 +3286,18 @@
         <v>94</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3297,7 +3306,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>102</v>
@@ -3317,7 +3326,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>106</v>
@@ -3334,10 +3343,10 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="27" t="s">
@@ -3353,16 +3362,16 @@
         <v>94</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>122</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G12" s="30"/>
     </row>
@@ -3371,7 +3380,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>102</v>
@@ -3382,7 +3391,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>106</v>
@@ -3390,22 +3399,24 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="14"/>
+        <v>217</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3413,7 +3424,7 @@
         <v>100</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>102</v>
@@ -3424,18 +3435,16 @@
         <v>100</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>166</v>
-      </c>
+      <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -3444,10 +3453,10 @@
         <v>94</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3455,7 +3464,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>102</v>
@@ -3466,18 +3475,16 @@
         <v>100</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>171</v>
-      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D23" s="14"/>
     </row>
@@ -3486,10 +3493,10 @@
         <v>94</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3497,7 +3504,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>102</v>
@@ -3508,18 +3515,16 @@
         <v>100</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D27" s="14"/>
     </row>
@@ -3528,10 +3533,10 @@
         <v>94</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3539,7 +3544,7 @@
         <v>100</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>102</v>
@@ -3550,26 +3555,34 @@
         <v>100</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="31"/>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
+++ b/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lianhang\program\SneakerPro\Sneaker\0_UseCase_UML_ER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180ECDB1-3CCE-468C-9F8B-C1CD509F8B9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE61D96-6DD4-4B39-A01B-650F25A7117C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3155,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE1C4F-B03B-42BB-804A-CE1BF2D44FE1}">
   <dimension ref="B1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
+++ b/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lianhang\program\SneakerPro\Sneaker\0_UseCase_UML_ER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE61D96-6DD4-4B39-A01B-650F25A7117C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB04F80-2182-476B-897E-6B08BCC84445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3156,7 +3156,7 @@
   <dimension ref="B1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
+++ b/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lianhang\program\SneakerPro\Sneaker\0_UseCase_UML_ER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB04F80-2182-476B-897E-6B08BCC84445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD06C654-021A-44D5-BE57-453E6DE87DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2712" yWindow="1068" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库表" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="220">
   <si>
     <t>用户信息表：UserInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -608,10 +608,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AddTeaches_A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{A#stuid|courseID|classID}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -708,42 +704,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加入购物车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除购物车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新购物车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定交易购物车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TransactionOrder_O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DeleteFavoriteCart_DF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddFavoriteCart_AF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateFavoriteCart_UF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfirmFavoriteCart_CF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{O#!|fansid|订单1|订单2|...}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -840,10 +804,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>命令汇总：LIHXZ|FO(AF)(DF)(UF)(CF)|S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>命令汇总：LIHXZ|UOSPQ|TGENARY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -880,14 +840,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>命令汇总：LIHXZ||SMJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplyStoreImage_PS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{PS#?|traid|error_msg}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -904,7 +856,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>请求图片信息</t>
+    <t>注册新信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{A#msg}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{A#!|msg}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{A#?|msg}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyImage_P + 其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddInfoImage_A + （其他）</t>
+  </si>
+  <si>
+    <t>A（XX）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P（XX）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令汇总：LIHXZPA|FO|SMJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请注册</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -912,7 +899,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,6 +927,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1356,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1412,6 +1408,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1710,13 +1721,13 @@
   <sheetData>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1793,13 +1804,13 @@
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1863,13 +1874,13 @@
     </row>
     <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -1946,13 +1957,13 @@
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -2070,13 +2081,13 @@
     </row>
     <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
@@ -2207,13 +2218,13 @@
     </row>
     <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
@@ -2322,13 +2333,13 @@
     </row>
     <row r="53" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="44"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -2423,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B341545-7381-4158-B5FB-6298F9BF0289}">
-  <dimension ref="B1:G23"/>
+  <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2453,8 +2464,8 @@
       <c r="E2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
@@ -2706,7 +2717,7 @@
         <v>144</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -2715,10 +2726,10 @@
         <v>94</v>
       </c>
       <c r="C20" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2744,16 +2755,104 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
+      <c r="D26" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2765,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27A60-6044-4F40-8A0D-7F33DB5BF3E4}">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
@@ -2793,15 +2892,15 @@
       <c r="E2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -2819,10 +2918,10 @@
         <v>94</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>97</v>
@@ -2839,7 +2938,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>102</v>
@@ -2859,7 +2958,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>106</v>
@@ -2879,7 +2978,7 @@
         <v>143</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="32" t="s">
@@ -2897,10 +2996,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>171</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>172</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>111</v>
@@ -2917,7 +3016,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>102</v>
@@ -2937,7 +3036,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>106</v>
@@ -2953,12 +3052,8 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>179</v>
-      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="27" t="s">
         <v>122</v>
@@ -2973,7 +3068,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>138</v>
@@ -2991,7 +3086,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>102</v>
@@ -3002,19 +3097,15 @@
         <v>100</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>178</v>
-      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -3022,7 +3113,7 @@
         <v>94</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>140</v>
@@ -3033,7 +3124,7 @@
         <v>100</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>102</v>
@@ -3044,19 +3135,15 @@
         <v>100</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>180</v>
-      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -3064,7 +3151,7 @@
         <v>94</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>141</v>
@@ -3075,7 +3162,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>102</v>
@@ -3086,19 +3173,15 @@
         <v>100</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -3106,7 +3189,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>141</v>
@@ -3117,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>102</v>
@@ -3128,18 +3211,18 @@
         <v>100</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3155,8 +3238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE1C4F-B03B-42BB-804A-CE1BF2D44FE1}">
   <dimension ref="B1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3171,7 +3254,7 @@
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>89</v>
@@ -3182,15 +3265,15 @@
       <c r="E2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -3208,10 +3291,10 @@
         <v>94</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>97</v>
@@ -3228,7 +3311,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>102</v>
@@ -3248,7 +3331,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>106</v>
@@ -3265,10 +3348,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="32" t="s">
@@ -3286,7 +3369,7 @@
         <v>94</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>145</v>
@@ -3306,7 +3389,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>102</v>
@@ -3326,7 +3409,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>106</v>
@@ -3343,10 +3426,10 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="27" t="s">
@@ -3362,7 +3445,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>146</v>
@@ -3380,7 +3463,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>102</v>
@@ -3391,188 +3474,162 @@
         <v>100</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>222</v>
-      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>221</v>
-      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>102</v>
-      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>106</v>
-      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="D20" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="39"/>
+      <c r="C23" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="40"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="24" t="s">
+      <c r="C24" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="24" t="s">
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="39"/>
+      <c r="C27" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="24" t="s">
+      <c r="C28" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="24" t="s">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
+      <c r="B31" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="51"/>
+      <c r="B33" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
+++ b/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lianhang\program\SneakerPro\Sneaker\0_UseCase_UML_ER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD06C654-021A-44D5-BE57-453E6DE87DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CFED93-C2D6-4285-9FCA-82C34281E13E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2712" yWindow="1068" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库表" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="227">
   <si>
     <t>用户信息表：UserInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -887,11 +887,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>命令汇总：LIHXZPA|FO|SMJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>申请注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveInfo_D + （其他）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D（XX）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请注销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{D#msg}</t>
+  </si>
+  <si>
+    <t>{D#!|msg}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{D#?|msg}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令汇总：LIHXZPAD|FO|SMJ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2434,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B341545-7381-4158-B5FB-6298F9BF0289}">
-  <dimension ref="B1:G31"/>
+  <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2800,13 +2827,13 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -2814,10 +2841,10 @@
         <v>94</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2825,7 +2852,7 @@
         <v>100</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>102</v>
@@ -2836,23 +2863,67 @@
         <v>100</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
+    </row>
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2864,7 +2935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27A60-6044-4F40-8A0D-7F33DB5BF3E4}">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
@@ -3219,7 +3290,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="55" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="57"/>
@@ -3238,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE1C4F-B03B-42BB-804A-CE1BF2D44FE1}">
   <dimension ref="B1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3620,7 +3691,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="52" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C31" s="53"/>
       <c r="D31" s="54"/>

--- a/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
+++ b/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lianhang\program\SneakerPro\Sneaker\0_UseCase_UML_ER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CFED93-C2D6-4285-9FCA-82C34281E13E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63762419-DA8A-463A-B90F-CCCE6D2080CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2712" yWindow="1068" windowWidth="17280" windowHeight="9072" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库表" sheetId="1" r:id="rId1"/>
@@ -596,10 +596,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获取可授课程信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获取现有班级信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -919,6 +915,10 @@
   </si>
   <si>
     <t>命令汇总：LIHXZPAD|FO|SMJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取商品信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2744,7 +2744,7 @@
         <v>144</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -2753,10 +2753,10 @@
         <v>94</v>
       </c>
       <c r="C20" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>162</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2783,13 +2783,13 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -2797,10 +2797,10 @@
         <v>94</v>
       </c>
       <c r="C24" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>208</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2808,7 +2808,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>102</v>
@@ -2819,7 +2819,7 @@
         <v>100</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>106</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -2841,10 +2841,10 @@
         <v>94</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2852,7 +2852,7 @@
         <v>100</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>102</v>
@@ -2863,7 +2863,7 @@
         <v>100</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>106</v>
@@ -2871,13 +2871,13 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -2885,10 +2885,10 @@
         <v>94</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2896,7 +2896,7 @@
         <v>100</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>102</v>
@@ -2907,7 +2907,7 @@
         <v>100</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>106</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C35" s="53"/>
       <c r="D35" s="54"/>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>165</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -2989,10 +2989,10 @@
         <v>94</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>97</v>
@@ -3009,7 +3009,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>102</v>
@@ -3029,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>106</v>
@@ -3049,7 +3049,7 @@
         <v>143</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="32" t="s">
@@ -3067,10 +3067,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>170</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>171</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>111</v>
@@ -3087,7 +3087,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>102</v>
@@ -3107,7 +3107,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>106</v>
@@ -3139,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>138</v>
@@ -3157,7 +3157,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>102</v>
@@ -3168,7 +3168,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>106</v>
@@ -3184,7 +3184,7 @@
         <v>94</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>140</v>
@@ -3195,7 +3195,7 @@
         <v>100</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>102</v>
@@ -3206,7 +3206,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>106</v>
@@ -3222,7 +3222,7 @@
         <v>94</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>141</v>
@@ -3233,7 +3233,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>102</v>
@@ -3244,7 +3244,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>106</v>
@@ -3260,7 +3260,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>141</v>
@@ -3271,7 +3271,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>102</v>
@@ -3282,7 +3282,7 @@
         <v>100</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>106</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="57"/>
@@ -3310,7 +3310,7 @@
   <dimension ref="B1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3325,7 +3325,7 @@
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>89</v>
@@ -3341,10 +3341,10 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -3362,10 +3362,10 @@
         <v>94</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>97</v>
@@ -3382,7 +3382,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>102</v>
@@ -3402,7 +3402,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>106</v>
@@ -3419,10 +3419,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="32" t="s">
@@ -3440,10 +3440,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>111</v>
@@ -3460,7 +3460,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>102</v>
@@ -3480,7 +3480,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>106</v>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="27" t="s">
@@ -3516,10 +3516,10 @@
         <v>94</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>122</v>
@@ -3534,7 +3534,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>102</v>
@@ -3545,7 +3545,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>106</v>
@@ -3581,10 +3581,10 @@
         <v>94</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3592,7 +3592,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>102</v>
@@ -3603,7 +3603,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>106</v>
@@ -3612,7 +3612,7 @@
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
       <c r="C23" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" s="40"/>
     </row>
@@ -3621,10 +3621,10 @@
         <v>94</v>
       </c>
       <c r="C24" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="36" t="s">
         <v>152</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3632,7 +3632,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>102</v>
@@ -3643,7 +3643,7 @@
         <v>100</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>106</v>
@@ -3652,7 +3652,7 @@
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
       <c r="C27" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="40"/>
     </row>
@@ -3661,10 +3661,10 @@
         <v>94</v>
       </c>
       <c r="C28" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="36" t="s">
         <v>157</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -3672,7 +3672,7 @@
         <v>100</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>102</v>
@@ -3683,7 +3683,7 @@
         <v>100</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>106</v>
@@ -3691,14 +3691,14 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" s="53"/>
       <c r="D31" s="54"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" s="58"/>
     </row>

--- a/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
+++ b/0_UseCase_UML_ER/SNEAKER通讯协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lianhang\program\SneakerPro\Sneaker\0_UseCase_UML_ER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63762419-DA8A-463A-B90F-CCCE6D2080CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D687AC-F00B-479E-8C20-2211FA288ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2712" yWindow="1068" windowWidth="17280" windowHeight="9072" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库表" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="228">
   <si>
     <t>用户信息表：UserInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -919,6 +919,10 @@
   </si>
   <si>
     <t>获取商品信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -926,7 +930,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,6 +967,15 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1379,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1474,6 +1487,24 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2463,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B341545-7381-4158-B5FB-6298F9BF0289}">
   <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2672,7 +2703,7 @@
         <v>127</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2936,7 +2967,7 @@
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3135,13 +3166,13 @@
       <c r="G11" s="29"/>
     </row>
     <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="60" t="s">
         <v>138</v>
       </c>
       <c r="E12" s="27" t="s">
@@ -3153,138 +3184,138 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="62" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="62" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="62" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="65" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="62" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="62" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="65" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="62" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="62" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3309,7 +3340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE1C4F-B03B-42BB-804A-CE1BF2D44FE1}">
   <dimension ref="B1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
